--- a/SaveFiles/bankingApp.xlsx
+++ b/SaveFiles/bankingApp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\RootKit\RootKit_SaveFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\RootKit\BankApplication\SaveFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B07B32-F1EF-45F6-94C0-6C6E7E0F7329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CDF655-45A1-4340-8577-A2088E016C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-225" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -42,13 +42,22 @@
   </si>
   <si>
     <t>Account Balance</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>Savings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +72,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,17 +118,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,7 +435,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +450,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>123</v>
@@ -439,7 +458,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>321</v>
@@ -452,11 +471,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DB8FC9-E1CA-4DF1-8F6F-D5B1FDE59D95}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -470,6 +494,62 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
